--- a/projects/sociocracy/cc_circle_v2.xlsx
+++ b/projects/sociocracy/cc_circle_v2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,70 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>is_role</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>is_role</t>
+          <t>parent_name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>parent_name</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>size</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>detailed_description</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>detailed_description</t>
+          <t>current_focus</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>current_focus</t>
+          <t>people</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>task</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>budget</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>budget</t>
+          <t>Navigator</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Navigator</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Anchor</t>
         </is>
@@ -510,72 +505,125 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Advisory Board</t>
-        </is>
-      </c>
-      <c r="E2" t="b">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Carbon Copy</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Carbon Copy</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>15</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>By 2034, the world will be smarter, more 
+ connected, and more empowered. 
+ Communities thrive on informed, engaged 
+ participation, with seamless 
+ collaboration between digital and 
+ physical spaces. At Carbon Copy, we 
+ imagine a future where individuals and 
+ groups learn, deliberate, and act 
+ together with clarity and confidence. Our 
+ mission is to make learning, 
+ collective decision-making, and 
+ problem-solving simpler, more engaging, 
+ impactful, and accessible. By blending 
+ cutting-edge technology with 
+ accessible, community-driven tools, we 
+ enable people to understand complex 
+ ideas, and collaborate fluidly across 
+ borders, fostering trust, transparency, 
+ and shared progress.</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Fahrt nach ZH</t>
+          <t>Make our app available to 
+ any community, enabling them to 
+ organize an assembly easily at the lowest 
+ possible cost.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nicht einschlafen</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Advisory Board</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Carbon Copy</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fahrt nach ZH</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nicht einschlafen</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Board of Directors</t>
         </is>
       </c>
-      <c r="E3" t="b">
+      <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Carbon Copy</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
         <v>10</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>We approve budgets, projects, and 
  partnerships, oversee committees and 
@@ -585,90 +633,88 @@
  OKR theory.</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>Christian, Philip, Aaron, Moe</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Strategic oversight, decision-making, and accountability.</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>unlimited</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>21</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Core Activities</t>
-        </is>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Carbon Copy</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Joshua</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Core Activities</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Carbon Copy</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Memebers</t>
         </is>
       </c>
-      <c r="E5" t="b">
+      <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Carbon Copy</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Approve budgets, projects, and 
  partnerships. Oversee committees and 
@@ -678,260 +724,250 @@
  theory.</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Contact with Migros Pioneer Fund &amp; Oak 
  foundation. Draft for Agora 2.0 
  Grant.</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Execute OKRs</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1000 CHF</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Ongoing Collaborations</t>
-        </is>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Carbon Copy</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Updated focus</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Lea, Elian</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2500 CHF</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
-      </c>
-      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Agora 2.0</t>
-        </is>
-      </c>
-      <c r="E7" t="b">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ongoing Collaborations</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Advisory Board</t>
-        </is>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Carbon Copy</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>How can we improve the app? What is 
- needed to bring it to the next level?</t>
+          <t>Updated focus</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1 App to serve all citizen assemblies!</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Christian, Philip</t>
-        </is>
-      </c>
+          <t>Lea, Elian</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Expand app</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>10000 CHF</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Philip</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
+          <t>2500 CHF</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
-      </c>
-      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Finances</t>
-        </is>
-      </c>
-      <c r="E8" t="b">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Agora 2.0</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Advisory Board</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
       <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
         <v>20</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>How can we improve the app? What is 
+ needed to bring it to the next level?</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>We look for fitting grants and write 
- them.</t>
+          <t>1 App to serve all citizen assemblies!</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Contact with Migros Pioneer Fund &amp; Oak 
- foundation. Draft for Agora 2.0 
- Grant.</t>
+          <t>Christian, Philip</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Christian, Philip</t>
+          <t>Expand app</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Look for grants.</t>
+          <t>10000 CHF</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>100 CHF</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
           <t>Philip</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
-      </c>
-      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Finances</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Advisory Board</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>We look for fitting grants and write 
+ them.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Contact with Migros Pioneer Fund &amp; Oak 
+ foundation. Draft for Agora 2.0 
+ Grant.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Christian, Philip</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Look for grants.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>100 CHF</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Philip</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Outreach</t>
         </is>
       </c>
-      <c r="E9" t="b">
+      <c r="D10" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Advisory Board</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>How to find people which are aligned 
  with our mission? How can they enrich our 
  goals? How do we onboard new people?</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Have a structured onboarding process.</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Christian, Philip</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Expand the Team and Build Capacity. Onboard people.</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>100 CHF</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Philip</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
